--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/carculator_truck/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16529A28-44E8-2C49-9932-775610643269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEA59C5-C5F3-384E-AD7E-3E737C630841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="660" windowWidth="30240" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1640" yWindow="820" windowWidth="30240" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle parameters" sheetId="22" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AC$308</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AC$313</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3226" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3253" uniqueCount="280">
   <si>
     <t>power to mass ratio</t>
   </si>
@@ -877,6 +877,15 @@
   <si>
     <t>battery cycle life, NMC-955</t>
   </si>
+  <si>
+    <t>battery cycle life, Li-O2</t>
+  </si>
+  <si>
+    <t>battery cycle life, Li-S</t>
+  </si>
+  <si>
+    <t>battery cycle life, SiB</t>
+  </si>
 </sst>
 </file>
 
@@ -1399,13 +1408,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU313"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AU316"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="Z115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
+      <selection pane="bottomRight" activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1573,7 +1583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1678,7 +1688,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1783,7 +1793,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1888,7 +1898,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1993,7 +2003,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2094,7 +2104,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2195,7 +2205,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2296,7 +2306,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="12.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2365,7 +2375,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -2434,7 +2444,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2539,7 +2549,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2644,7 +2654,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -2749,7 +2759,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="14.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -2854,7 +2864,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="14.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2955,7 +2965,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3056,7 +3066,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3157,7 +3167,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -3246,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3350,7 +3360,7 @@
         <v>2057.6999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3454,7 +3464,7 @@
         <v>3086.5499999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3558,7 +3568,7 @@
         <v>4115.3999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3662,7 +3672,7 @@
         <v>4321.1699999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3766,7 +3776,7 @@
         <v>4629.8249999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -3868,7 +3878,7 @@
         <v>5144.25</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3970,7 +3980,7 @@
         <v>5350.0199999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -4071,7 +4081,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -4172,7 +4182,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
@@ -4273,7 +4283,7 @@
         <v>2.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
@@ -4374,7 +4384,7 @@
         <v>6.1199999999999991E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4475,7 +4485,7 @@
         <v>3.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -4576,7 +4586,7 @@
         <v>3.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>56</v>
       </c>
@@ -4677,7 +4687,7 @@
         <v>3.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>56</v>
       </c>
@@ -4758,7 +4768,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -4839,7 +4849,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
@@ -4920,7 +4930,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
@@ -5001,7 +5011,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
@@ -5082,7 +5092,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
@@ -5163,7 +5173,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
@@ -5244,7 +5254,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
@@ -5351,7 +5361,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
@@ -5458,7 +5468,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
@@ -5565,7 +5575,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
@@ -5672,7 +5682,7 @@
         <v>0.10400000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
@@ -5779,7 +5789,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
@@ -5886,7 +5896,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -5993,7 +6003,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -6100,7 +6110,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -6207,7 +6217,7 @@
         <v>0.10500000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
@@ -6314,7 +6324,7 @@
         <v>0.22499999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -6421,7 +6431,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -6528,7 +6538,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -6635,7 +6645,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -6742,7 +6752,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -6831,7 +6841,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -6920,7 +6930,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -7009,7 +7019,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -7098,7 +7108,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -7187,7 +7197,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -7276,7 +7286,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>56</v>
       </c>
@@ -7365,7 +7375,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -7446,7 +7456,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>56</v>
       </c>
@@ -7535,7 +7545,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>56</v>
       </c>
@@ -7624,7 +7634,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>56</v>
       </c>
@@ -7713,7 +7723,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>56</v>
       </c>
@@ -7802,7 +7812,7 @@
         <v>5137</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>56</v>
       </c>
@@ -7891,7 +7901,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>56</v>
       </c>
@@ -7980,7 +7990,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>56</v>
       </c>
@@ -8069,7 +8079,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>56</v>
       </c>
@@ -8150,7 +8160,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>56</v>
       </c>
@@ -8231,7 +8241,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>56</v>
       </c>
@@ -8318,7 +8328,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>56</v>
       </c>
@@ -8399,7 +8409,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -8506,7 +8516,7 @@
         <v>34.267517746478866</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>56</v>
       </c>
@@ -8587,7 +8597,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>56</v>
       </c>
@@ -8668,7 +8678,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>56</v>
       </c>
@@ -8749,7 +8759,7 @@
         <v>0.14904036144578314</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>56</v>
       </c>
@@ -8830,7 +8840,7 @@
         <v>0.13097295891891891</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>56</v>
       </c>
@@ -8911,7 +8921,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>56</v>
       </c>
@@ -8992,7 +9002,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>56</v>
       </c>
@@ -9073,7 +9083,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>56</v>
       </c>
@@ -9130,7 +9140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>56</v>
       </c>
@@ -9211,7 +9221,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>56</v>
       </c>
@@ -9292,7 +9302,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>56</v>
       </c>
@@ -9373,7 +9383,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>56</v>
       </c>
@@ -9454,7 +9464,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>56</v>
       </c>
@@ -9543,7 +9553,7 @@
         <v>3235.2</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>56</v>
       </c>
@@ -9632,7 +9642,7 @@
         <v>3235.2</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>56</v>
       </c>
@@ -9721,7 +9731,7 @@
         <v>3806.3999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>56</v>
       </c>
@@ -9810,7 +9820,7 @@
         <v>4393.2</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>56</v>
       </c>
@@ -9899,7 +9909,7 @@
         <v>4393.2</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>56</v>
       </c>
@@ -9988,7 +9998,7 @@
         <v>4393.2</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>56</v>
       </c>
@@ -10069,7 +10079,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>56</v>
       </c>
@@ -10156,7 +10166,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>34</v>
       </c>
@@ -10257,7 +10267,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>34</v>
       </c>
@@ -10358,7 +10368,7 @@
         <v>496250</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>34</v>
       </c>
@@ -10459,7 +10469,7 @@
         <v>393750</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>34</v>
       </c>
@@ -10560,7 +10570,7 @@
         <v>725000</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>34</v>
       </c>
@@ -10661,7 +10671,7 @@
         <v>887500</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>34</v>
       </c>
@@ -10762,7 +10772,7 @@
         <v>887500</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>34</v>
       </c>
@@ -10863,7 +10873,7 @@
         <v>887500</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>36</v>
       </c>
@@ -10950,7 +10960,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>36</v>
       </c>
@@ -11041,7 +11051,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>36</v>
       </c>
@@ -11126,7 +11136,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>36</v>
       </c>
@@ -11211,7 +11221,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>29</v>
       </c>
@@ -11276,7 +11286,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>29</v>
       </c>
@@ -11341,7 +11351,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>29</v>
       </c>
@@ -11406,7 +11416,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>29</v>
       </c>
@@ -11495,7 +11505,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>29</v>
       </c>
@@ -11580,7 +11590,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>29</v>
       </c>
@@ -11669,7 +11679,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>29</v>
       </c>
@@ -11754,7 +11764,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>29</v>
       </c>
@@ -11843,7 +11853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>29</v>
       </c>
@@ -12334,7 +12344,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>29</v>
       </c>
@@ -12423,7 +12433,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>29</v>
       </c>
@@ -12518,7 +12528,7 @@
         <v>0.94760000000000011</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>29</v>
       </c>
@@ -12613,7 +12623,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>29</v>
       </c>
@@ -12702,7 +12712,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>29</v>
       </c>
@@ -12791,7 +12801,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>29</v>
       </c>
@@ -12880,7 +12890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>29</v>
       </c>
@@ -12969,7 +12979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>29</v>
       </c>
@@ -13064,7 +13074,7 @@
         <v>3.4499999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>29</v>
       </c>
@@ -13151,7 +13161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>29</v>
       </c>
@@ -13238,7 +13248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>29</v>
       </c>
@@ -13325,7 +13335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>29</v>
       </c>
@@ -13412,7 +13422,7 @@
         <v>99.000000000000014</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>29</v>
       </c>
@@ -13499,7 +13509,7 @@
         <v>104.50000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>29</v>
       </c>
@@ -13586,7 +13596,7 @@
         <v>121.00000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>29</v>
       </c>
@@ -13673,7 +13683,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>26</v>
       </c>
@@ -13739,7 +13749,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>26</v>
       </c>
@@ -13805,7 +13815,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>26</v>
       </c>
@@ -13871,7 +13881,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>26</v>
       </c>
@@ -13937,7 +13947,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>26</v>
       </c>
@@ -14003,7 +14013,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>26</v>
       </c>
@@ -14069,7 +14079,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>26</v>
       </c>
@@ -14135,7 +14145,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>26</v>
       </c>
@@ -14236,7 +14246,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>26</v>
       </c>
@@ -14337,7 +14347,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>26</v>
       </c>
@@ -14438,7 +14448,7 @@
         <v>1247.5</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>26</v>
       </c>
@@ -14540,7 +14550,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>26</v>
       </c>
@@ -14641,7 +14651,7 @@
         <v>1422.5</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>26</v>
       </c>
@@ -14742,7 +14752,7 @@
         <v>1777.5</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>26</v>
       </c>
@@ -14843,7 +14853,7 @@
         <v>2666.25</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>26</v>
       </c>
@@ -14949,7 +14959,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>26</v>
       </c>
@@ -15055,7 +15065,7 @@
         <v>831.25</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>26</v>
       </c>
@@ -15161,7 +15171,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>26</v>
       </c>
@@ -15267,7 +15277,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>26</v>
       </c>
@@ -15373,7 +15383,7 @@
         <v>2656.25</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>26</v>
       </c>
@@ -15479,7 +15489,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>26</v>
       </c>
@@ -15585,7 +15595,7 @@
         <v>4980</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>26</v>
       </c>
@@ -15680,7 +15690,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>26</v>
       </c>
@@ -15784,7 +15794,7 @@
         <v>68.330539200000004</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>26</v>
       </c>
@@ -15888,7 +15898,7 @@
         <v>39.341825600000007</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>26</v>
       </c>
@@ -15992,7 +16002,7 @@
         <v>36.235892</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>26</v>
       </c>
@@ -16096,7 +16106,7 @@
         <v>30.024024799999999</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>26</v>
       </c>
@@ -16200,7 +16210,7 @@
         <v>25.88278</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>26</v>
       </c>
@@ -16304,7 +16314,7 @@
         <v>25.88278</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>26</v>
       </c>
@@ -16408,7 +16418,7 @@
         <v>22.7768464</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>26</v>
       </c>
@@ -16512,7 +16522,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>26</v>
       </c>
@@ -16616,7 +16626,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>26</v>
       </c>
@@ -16720,7 +16730,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>26</v>
       </c>
@@ -16824,7 +16834,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>26</v>
       </c>
@@ -16928,7 +16938,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>26</v>
       </c>
@@ -17032,7 +17042,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>26</v>
       </c>
@@ -17136,7 +17146,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>26</v>
       </c>
@@ -17237,7 +17247,7 @@
         <v>27.500000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>26</v>
       </c>
@@ -17338,7 +17348,7 @@
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>26</v>
       </c>
@@ -17439,7 +17449,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>26</v>
       </c>
@@ -17540,7 +17550,7 @@
         <v>24.200000000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>26</v>
       </c>
@@ -17641,7 +17651,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>26</v>
       </c>
@@ -17742,7 +17752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>26</v>
       </c>
@@ -17843,7 +17853,7 @@
         <v>20.900000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>26</v>
       </c>
@@ -17949,7 +17959,7 @@
         <v>148.75</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>26</v>
       </c>
@@ -18055,7 +18065,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>26</v>
       </c>
@@ -18161,7 +18171,7 @@
         <v>767.5</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>26</v>
       </c>
@@ -18267,7 +18277,7 @@
         <v>1107.5</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>26</v>
       </c>
@@ -18373,7 +18383,7 @@
         <v>1058.75</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>26</v>
       </c>
@@ -18479,7 +18489,7 @@
         <v>1323.75</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>26</v>
       </c>
@@ -18585,7 +18595,7 @@
         <v>1986.25</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>26</v>
       </c>
@@ -18674,7 +18684,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>26</v>
       </c>
@@ -18763,7 +18773,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>26</v>
       </c>
@@ -18852,7 +18862,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>26</v>
       </c>
@@ -18941,7 +18951,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>26</v>
       </c>
@@ -19030,7 +19040,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>26</v>
       </c>
@@ -19119,7 +19129,7 @@
         <v>28100</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>26</v>
       </c>
@@ -19208,7 +19218,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>26</v>
       </c>
@@ -19305,7 +19315,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>26</v>
       </c>
@@ -19402,7 +19412,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>26</v>
       </c>
@@ -19467,7 +19477,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>26</v>
       </c>
@@ -19532,7 +19542,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>26</v>
       </c>
@@ -19597,7 +19607,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>26</v>
       </c>
@@ -19662,7 +19672,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>26</v>
       </c>
@@ -19727,7 +19737,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:31" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>26</v>
       </c>
@@ -19792,7 +19802,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>26</v>
       </c>
@@ -19857,7 +19867,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>26</v>
       </c>
@@ -19963,7 +19973,7 @@
         <v>878.75</v>
       </c>
     </row>
-    <row r="201" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>26</v>
       </c>
@@ -20069,7 +20079,7 @@
         <v>1882.5</v>
       </c>
     </row>
-    <row r="202" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>26</v>
       </c>
@@ -20176,7 +20186,7 @@
         <v>4518.75</v>
       </c>
     </row>
-    <row r="203" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>26</v>
       </c>
@@ -20279,7 +20289,7 @@
         <v>6526.25</v>
       </c>
     </row>
-    <row r="204" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>26</v>
       </c>
@@ -20386,7 +20396,7 @@
         <v>5538.75</v>
       </c>
     </row>
-    <row r="205" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>26</v>
       </c>
@@ -20493,7 +20503,7 @@
         <v>6923.75</v>
       </c>
     </row>
-    <row r="206" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>26</v>
       </c>
@@ -20600,7 +20610,7 @@
         <v>10386.25</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>26</v>
       </c>
@@ -20698,7 +20708,7 @@
         <v>3.8581874999999992</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>26</v>
       </c>
@@ -20796,7 +20806,7 @@
         <v>5.4871999999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>26</v>
       </c>
@@ -20894,7 +20904,7 @@
         <v>6.6875249999999982</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>26</v>
       </c>
@@ -20992,7 +21002,7 @@
         <v>6.6875249999999982</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>26</v>
       </c>
@@ -21093,7 +21103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>26</v>
       </c>
@@ -21194,7 +21204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>26</v>
       </c>
@@ -21295,7 +21305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>26</v>
       </c>
@@ -21396,7 +21406,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>26</v>
       </c>
@@ -21497,7 +21507,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>26</v>
       </c>
@@ -21598,7 +21608,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>26</v>
       </c>
@@ -21700,7 +21710,7 @@
         <v>406.25</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>26</v>
       </c>
@@ -21801,7 +21811,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>26</v>
       </c>
@@ -21902,7 +21912,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>26</v>
       </c>
@@ -22003,7 +22013,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>26</v>
       </c>
@@ -22104,7 +22114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>26</v>
       </c>
@@ -22205,7 +22215,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>26</v>
       </c>
@@ -22306,7 +22316,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="224" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>26</v>
       </c>
@@ -22408,7 +22418,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>26</v>
       </c>
@@ -22509,7 +22519,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="226" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>26</v>
       </c>
@@ -22610,7 +22620,7 @@
         <v>331.25</v>
       </c>
     </row>
-    <row r="227" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>26</v>
       </c>
@@ -22711,7 +22721,7 @@
         <v>497.5</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>26</v>
       </c>
@@ -22812,7 +22822,7 @@
         <v>218.75</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>26</v>
       </c>
@@ -22913,7 +22923,7 @@
         <v>468.75</v>
       </c>
     </row>
-    <row r="230" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>26</v>
       </c>
@@ -23014,7 +23024,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="231" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>26</v>
       </c>
@@ -23116,7 +23126,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="232" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>26</v>
       </c>
@@ -23217,7 +23227,7 @@
         <v>1152.5</v>
       </c>
     </row>
-    <row r="233" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>26</v>
       </c>
@@ -23318,7 +23328,7 @@
         <v>1441.25</v>
       </c>
     </row>
-    <row r="234" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>26</v>
       </c>
@@ -23419,7 +23429,7 @@
         <v>2162.5</v>
       </c>
     </row>
-    <row r="235" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>26</v>
       </c>
@@ -23520,7 +23530,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>26</v>
       </c>
@@ -23621,7 +23631,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="237" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>26</v>
       </c>
@@ -23722,7 +23732,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="238" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>26</v>
       </c>
@@ -23824,7 +23834,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="239" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>26</v>
       </c>
@@ -23925,7 +23935,7 @@
         <v>783.75</v>
       </c>
     </row>
-    <row r="240" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>26</v>
       </c>
@@ -24026,7 +24036,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="241" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>26</v>
       </c>
@@ -24127,7 +24137,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="242" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>26</v>
       </c>
@@ -24194,7 +24204,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>26</v>
       </c>
@@ -24281,7 +24291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="244" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>26</v>
       </c>
@@ -24380,7 +24390,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="245" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>27</v>
       </c>
@@ -24481,7 +24491,7 @@
         <v>25.960000000000004</v>
       </c>
     </row>
-    <row r="246" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>27</v>
       </c>
@@ -24582,7 +24592,7 @@
         <v>15.400000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>27</v>
       </c>
@@ -24679,7 +24689,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="248" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>27</v>
       </c>
@@ -24774,7 +24784,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="249" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>27</v>
       </c>
@@ -24867,7 +24877,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="250" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>27</v>
       </c>
@@ -24956,7 +24966,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="251" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>27</v>
       </c>
@@ -25062,7 +25072,7 @@
       <c r="AT251" s="1"/>
       <c r="AU251" s="1"/>
     </row>
-    <row r="252" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>27</v>
       </c>
@@ -25186,7 +25196,7 @@
       <c r="AT252" s="1"/>
       <c r="AU252" s="1"/>
     </row>
-    <row r="253" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>27</v>
       </c>
@@ -25292,7 +25302,7 @@
       <c r="AT253" s="1"/>
       <c r="AU253" s="1"/>
     </row>
-    <row r="254" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>27</v>
       </c>
@@ -25396,7 +25406,7 @@
       <c r="AT254" s="1"/>
       <c r="AU254" s="1"/>
     </row>
-    <row r="255" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>27</v>
       </c>
@@ -25503,7 +25513,7 @@
       <c r="AT255" s="1"/>
       <c r="AU255" s="1"/>
     </row>
-    <row r="256" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>27</v>
       </c>
@@ -25610,7 +25620,7 @@
       <c r="AT256" s="1"/>
       <c r="AU256" s="1"/>
     </row>
-    <row r="257" spans="1:47" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:47" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>27</v>
       </c>
@@ -25728,7 +25738,7 @@
       <c r="AT257" s="1"/>
       <c r="AU257" s="1"/>
     </row>
-    <row r="258" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>27</v>
       </c>
@@ -25829,7 +25839,7 @@
         <v>3.0008124999999994</v>
       </c>
     </row>
-    <row r="259" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>27</v>
       </c>
@@ -25898,7 +25908,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>27</v>
       </c>
@@ -25967,7 +25977,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>27</v>
       </c>
@@ -26062,7 +26072,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="262" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>27</v>
       </c>
@@ -26157,7 +26167,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="263" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>27</v>
       </c>
@@ -26252,7 +26262,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="264" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>27</v>
       </c>
@@ -26347,7 +26357,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="265" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>27</v>
       </c>
@@ -26442,7 +26452,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="266" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>27</v>
       </c>
@@ -26537,7 +26547,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="267" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>27</v>
       </c>
@@ -26632,7 +26642,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="268" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>27</v>
       </c>
@@ -26727,7 +26737,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="269" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>27</v>
       </c>
@@ -26824,7 +26834,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="270" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>27</v>
       </c>
@@ -26913,7 +26923,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="271" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>27</v>
       </c>
@@ -26982,7 +26992,7 @@
         <v>ISSUE</v>
       </c>
     </row>
-    <row r="272" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>27</v>
       </c>
@@ -27077,7 +27087,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="273" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>27</v>
       </c>
@@ -27166,7 +27176,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="274" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>27</v>
       </c>
@@ -27255,7 +27265,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="275" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>27</v>
       </c>
@@ -27344,7 +27354,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="276" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>27</v>
       </c>
@@ -27433,7 +27443,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="277" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>27</v>
       </c>
@@ -27522,7 +27532,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="278" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>27</v>
       </c>
@@ -27611,7 +27621,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="279" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>27</v>
       </c>
@@ -27700,7 +27710,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>27</v>
       </c>
@@ -27769,7 +27779,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>27</v>
       </c>
@@ -27838,7 +27848,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>27</v>
       </c>
@@ -27907,7 +27917,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>27</v>
       </c>
@@ -28008,7 +28018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>29</v>
       </c>
@@ -28073,7 +28083,7 @@
       <c r="AB284" s="5"/>
       <c r="AC284" s="5"/>
     </row>
-    <row r="285" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>29</v>
       </c>
@@ -28123,7 +28133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>27</v>
       </c>
@@ -28191,7 +28201,7 @@
       <c r="AB286" s="26"/>
       <c r="AC286" s="26"/>
     </row>
-    <row r="287" spans="1:31" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:31" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="28" t="s">
         <v>29</v>
       </c>
@@ -28278,7 +28288,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="288" spans="1:31" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:31" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="28" t="s">
         <v>29</v>
       </c>
@@ -28365,7 +28375,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="289" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="28" t="s">
         <v>29</v>
       </c>
@@ -28452,7 +28462,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="290" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="28" t="s">
         <v>29</v>
       </c>
@@ -28539,7 +28549,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="291" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="28" t="s">
         <v>29</v>
       </c>
@@ -28626,7 +28636,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="292" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="28" t="s">
         <v>29</v>
       </c>
@@ -28713,7 +28723,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="293" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="28" t="s">
         <v>29</v>
       </c>
@@ -29061,7 +29071,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="297" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>29</v>
       </c>
@@ -29150,7 +29160,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="298" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="28" t="s">
         <v>29</v>
       </c>
@@ -29244,7 +29254,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="299" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="28" t="s">
         <v>29</v>
       </c>
@@ -29338,7 +29348,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="28" t="s">
         <v>29</v>
       </c>
@@ -29432,7 +29442,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="28" t="s">
         <v>29</v>
       </c>
@@ -29526,7 +29536,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="302" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="28" t="s">
         <v>29</v>
       </c>
@@ -29620,7 +29630,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="28" t="s">
         <v>29</v>
       </c>
@@ -29714,7 +29724,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="304" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="28" t="s">
         <v>29</v>
       </c>
@@ -29808,7 +29818,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="28" t="s">
         <v>29</v>
       </c>
@@ -29902,7 +29912,7 @@
         <v>0.97650000000000015</v>
       </c>
     </row>
-    <row r="306" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="28" t="s">
         <v>29</v>
       </c>
@@ -29996,7 +30006,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="307" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="28" t="s">
         <v>29</v>
       </c>
@@ -30090,7 +30100,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>29</v>
       </c>
@@ -30684,8 +30694,292 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="314" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A314" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H314" s="3"/>
+      <c r="I314" s="3"/>
+      <c r="J314" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L314" s="5">
+        <v>1300</v>
+      </c>
+      <c r="M314" s="5">
+        <v>1000</v>
+      </c>
+      <c r="N314" s="5">
+        <v>1500</v>
+      </c>
+      <c r="O314" s="5">
+        <v>1300</v>
+      </c>
+      <c r="P314" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Q314" s="5">
+        <v>1500</v>
+      </c>
+      <c r="R314" s="5">
+        <v>1300</v>
+      </c>
+      <c r="S314" s="5">
+        <v>1000</v>
+      </c>
+      <c r="T314" s="5">
+        <v>1500</v>
+      </c>
+      <c r="U314" s="5">
+        <v>1300</v>
+      </c>
+      <c r="V314" s="5">
+        <v>1000</v>
+      </c>
+      <c r="W314" s="5">
+        <v>1500</v>
+      </c>
+      <c r="X314" s="5">
+        <v>1300</v>
+      </c>
+      <c r="Y314" s="5">
+        <v>1000</v>
+      </c>
+      <c r="Z314" s="5">
+        <v>1500</v>
+      </c>
+      <c r="AA314" s="5">
+        <v>1300</v>
+      </c>
+      <c r="AB314" s="5">
+        <v>1000</v>
+      </c>
+      <c r="AC314" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="315" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A315" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H315" s="3"/>
+      <c r="I315" s="3"/>
+      <c r="J315" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L315" s="5">
+        <f>AVERAGE(M315,N315)</f>
+        <v>1150</v>
+      </c>
+      <c r="M315" s="5">
+        <v>800</v>
+      </c>
+      <c r="N315" s="5">
+        <v>1500</v>
+      </c>
+      <c r="O315" s="5">
+        <f>AVERAGE(P315,Q315)</f>
+        <v>1150</v>
+      </c>
+      <c r="P315" s="5">
+        <v>800</v>
+      </c>
+      <c r="Q315" s="5">
+        <v>1500</v>
+      </c>
+      <c r="R315" s="5">
+        <f>AVERAGE(S315,T315)</f>
+        <v>1150</v>
+      </c>
+      <c r="S315" s="5">
+        <v>800</v>
+      </c>
+      <c r="T315" s="5">
+        <v>1500</v>
+      </c>
+      <c r="U315" s="5">
+        <f>AVERAGE(V315,W315)</f>
+        <v>1150</v>
+      </c>
+      <c r="V315" s="5">
+        <v>800</v>
+      </c>
+      <c r="W315" s="5">
+        <v>1500</v>
+      </c>
+      <c r="X315" s="5">
+        <f>AVERAGE(Y315,Z315)</f>
+        <v>1150</v>
+      </c>
+      <c r="Y315" s="5">
+        <v>800</v>
+      </c>
+      <c r="Z315" s="5">
+        <v>1500</v>
+      </c>
+      <c r="AA315" s="5">
+        <f>AVERAGE(AB315,AC315)</f>
+        <v>1150</v>
+      </c>
+      <c r="AB315" s="5">
+        <v>800</v>
+      </c>
+      <c r="AC315" s="5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="316" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A316" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H316" s="3"/>
+      <c r="I316" s="3"/>
+      <c r="J316" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L316" s="5">
+        <f>AVERAGE(M316,N316)</f>
+        <v>3250</v>
+      </c>
+      <c r="M316" s="5">
+        <v>2500</v>
+      </c>
+      <c r="N316" s="5">
+        <v>4000</v>
+      </c>
+      <c r="O316" s="5">
+        <f>AVERAGE(P316,Q316)</f>
+        <v>3250</v>
+      </c>
+      <c r="P316" s="5">
+        <v>2500</v>
+      </c>
+      <c r="Q316" s="5">
+        <v>4000</v>
+      </c>
+      <c r="R316" s="5">
+        <f>AVERAGE(S316,T316)</f>
+        <v>3250</v>
+      </c>
+      <c r="S316" s="5">
+        <v>2500</v>
+      </c>
+      <c r="T316" s="5">
+        <v>4000</v>
+      </c>
+      <c r="U316" s="5">
+        <f>AVERAGE(V316,W316)</f>
+        <v>3250</v>
+      </c>
+      <c r="V316" s="5">
+        <v>2500</v>
+      </c>
+      <c r="W316" s="5">
+        <v>4000</v>
+      </c>
+      <c r="X316" s="5">
+        <f>AVERAGE(Y316,Z316)</f>
+        <v>3250</v>
+      </c>
+      <c r="Y316" s="5">
+        <v>2500</v>
+      </c>
+      <c r="Z316" s="5">
+        <v>4000</v>
+      </c>
+      <c r="AA316" s="5">
+        <f>AVERAGE(AB316,AC316)</f>
+        <v>3250</v>
+      </c>
+      <c r="AB316" s="5">
+        <v>2500</v>
+      </c>
+      <c r="AC316" s="5">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:AC308" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AC313" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="battery cell mass share, Li-O2"/>
+        <filter val="battery cell mass share, Li-S"/>
+        <filter val="battery cell mass share, SiB"/>
+        <filter val="battery cycle life, LFP"/>
+        <filter val="battery cycle life, LTO"/>
+        <filter val="battery cycle life, NCA"/>
+        <filter val="battery cycle life, NMC"/>
+        <filter val="battery cycle life, NMC-111"/>
+        <filter val="battery cycle life, NMC-523"/>
+        <filter val="battery cycle life, NMC-622"/>
+        <filter val="battery cycle life, NMC-811"/>
+        <filter val="battery cycle life, NMC-955"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I244" r:id="rId1" display="https://theicct.org/wp-content/uploads/2021/12/eu-tractor-trailers-analysis-aug21-2.pdf" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_truck/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E488256-D938-CB4D-AA40-0BF011A692CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B831B8C-FBC7-2C46-A282-712E2E13E806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="760" windowWidth="28760" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1620,10 +1620,10 @@
   <dimension ref="A1:AU387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="X48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA53" sqref="AA53:AC53"/>
+      <selection pane="bottomRight" activeCell="E133" sqref="E133:L334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -4188,7 +4188,7 @@
         <v>5350.0199999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
@@ -4439,7 +4439,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>3235.2</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>3235.2</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>3806.3999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>56</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>4393.2</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>56</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>4393.2</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>4393.2</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>18.700000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>18.700000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>59.876121804653181</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>97.29869793256141</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>82.329667481398118</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>119.75224360930636</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>71.10289464302565</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>89.814182706979764</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>86.071925094188941</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>82.329667481398118</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>74.845152255816473</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>67.360637030234827</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>74.845152255816473</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>0.16499999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>0.19565217391304351</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>253.00000000000003</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -6884,7 +6884,7 @@
         <v>715.00000000000011</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>68.2</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>56</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>56</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>2.5850000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>56</v>
       </c>
@@ -7432,7 +7432,7 @@
         <v>2.5850000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>56</v>
       </c>
@@ -7533,7 +7533,7 @@
         <v>2.5850000000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>56</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>2.5850000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>56</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>2.5850000000000001E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>56</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>2.5850000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>56</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>56</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>8.2500000000000004E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>56</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>8.2500000000000004E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>56</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>0.11561</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>0.14563999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>56</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>0.14563999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>56</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>0.14563999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>56</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>0.14563999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>56</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>0.12100000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>56</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>0.17347000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>56</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>56</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>56</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>56</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>56</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>56</v>
       </c>
@@ -9541,7 +9541,7 @@
         <v>0.12100000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>56</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>0.12100000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>56</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>0.17347000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>56</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>0.17347000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>56</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>56</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>56</v>
       </c>
@@ -10714,7 +10714,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>56</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>56</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>1.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>56</v>
       </c>
@@ -11003,7 +11003,7 @@
         <v>3.6300000000000006E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>56</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>0.10340000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>56</v>
       </c>
@@ -11205,7 +11205,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>56</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>56</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="106" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>56</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>0.1716</v>
       </c>
     </row>
-    <row r="107" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>56</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>5.5000000000000005E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>56</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>56</v>
       </c>
@@ -11811,7 +11811,7 @@
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>56</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>8.5800000000000001E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>56</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>8.5800000000000001E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>56</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>29</v>
       </c>
@@ -13981,7 +13981,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>29</v>
       </c>
@@ -14066,7 +14066,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>29</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>29</v>
       </c>
@@ -32111,7 +32111,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="327" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A327" s="3" t="s">
         <v>29</v>
       </c>
@@ -32210,7 +32210,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="328" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
         <v>29</v>
       </c>
@@ -32309,7 +32309,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="329" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A329" s="3" t="s">
         <v>29</v>
       </c>
@@ -32408,7 +32408,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="330" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A330" s="3" t="s">
         <v>29</v>
       </c>
@@ -32507,7 +32507,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="331" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A331" s="3" t="s">
         <v>29</v>
       </c>
@@ -32606,7 +32606,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A332" s="3" t="s">
         <v>29</v>
       </c>
@@ -32697,7 +32697,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="333" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A333" s="3" t="s">
         <v>29</v>
       </c>
@@ -32799,7 +32799,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="334" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A334" s="3" t="s">
         <v>29</v>
       </c>
@@ -32901,7 +32901,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="335" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3" t="s">
         <v>56</v>
       </c>
@@ -33002,7 +33002,7 @@
         <v>8.5800000000000001E-2</v>
       </c>
     </row>
-    <row r="336" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:29" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="3" t="s">
         <v>56</v>
       </c>
@@ -33439,7 +33439,7 @@
         <v>4.0000000000000003E-5</v>
       </c>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="3" t="s">
         <v>56</v>
       </c>
@@ -35239,7 +35239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="3" t="s">
         <v>56</v>
       </c>
@@ -35326,7 +35326,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="3" t="s">
         <v>56</v>
       </c>
@@ -35433,7 +35433,7 @@
         <v>0.16499999999999998</v>
       </c>
     </row>
-    <row r="368" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="3" t="s">
         <v>56</v>
       </c>
@@ -35538,7 +35538,7 @@
         <v>0.19565217391304351</v>
       </c>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="3" t="s">
         <v>56</v>
       </c>
@@ -36971,34 +36971,18 @@
   <autoFilter ref="A2:AC387" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="adblue cost per kg"/>
-        <filter val="battery onboard charging infrastructure cost"/>
-        <filter val="combustion exhaust treatment cost"/>
-        <filter val="combustion powertrain cost per kW"/>
-        <filter val="electric powertrain cost per kW"/>
-        <filter val="energy battery cost per kWh, LFP"/>
-        <filter val="energy battery cost per kWh, Li-O2"/>
-        <filter val="energy battery cost per kWh, Li-S"/>
-        <filter val="energy battery cost per kWh, LTO"/>
-        <filter val="energy battery cost per kWh, NCA"/>
-        <filter val="energy battery cost per kWh, NMC-111"/>
-        <filter val="energy battery cost per kWh, NMC-523"/>
-        <filter val="energy battery cost per kWh, NMC-622"/>
-        <filter val="energy battery cost per kWh, NMC-811"/>
-        <filter val="energy battery cost per kWh, NMC-955"/>
-        <filter val="energy battery cost per kWh, SiB"/>
-        <filter val="energy cost per kWh (depot)"/>
-        <filter val="energy cost per kWh (public)"/>
-        <filter val="fuel cell cost per kW"/>
-        <filter val="fuel tank cost per kg"/>
-        <filter val="glider base cost per kg"/>
-        <filter val="glider lightweighting cost per kg"/>
-        <filter val="heat pump cost"/>
-        <filter val="insurance cost share per year"/>
-        <filter val="insured share of purchase cost"/>
-        <filter val="maintenance cost per km"/>
-        <filter val="power battery cost per kW"/>
-        <filter val="road toll cost per km"/>
+        <filter val="battery cycle life, LFP"/>
+        <filter val="battery cycle life, Li-O2"/>
+        <filter val="battery cycle life, Li-S"/>
+        <filter val="battery cycle life, LTO"/>
+        <filter val="battery cycle life, NCA"/>
+        <filter val="battery cycle life, NMC"/>
+        <filter val="battery cycle life, NMC-111"/>
+        <filter val="battery cycle life, NMC-523"/>
+        <filter val="battery cycle life, NMC-622"/>
+        <filter val="battery cycle life, NMC-811"/>
+        <filter val="battery cycle life, NMC-955"/>
+        <filter val="battery cycle life, SiB"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10905"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_truck/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F936384-99AE-F946-8AF6-C8094475D6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105AE367-78D3-384B-8EB8-222C9EF14A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="347">
   <si>
     <t>power to mass ratio</t>
   </si>
@@ -1091,6 +1091,9 @@
   <si>
     <t>ICEV-d, HEV-d, ICEV-g, FCEV, PHEV-c-d</t>
   </si>
+  <si>
+    <t>€/kW/year</t>
+  </si>
 </sst>
 </file>
 
@@ -1620,10 +1623,10 @@
   <dimension ref="A1:AU387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="U301" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B394" sqref="B394"/>
+      <selection pane="bottomRight" activeCell="U378" sqref="U378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8026,7 +8029,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>56</v>
       </c>
@@ -8127,7 +8130,7 @@
         <v>8.2500000000000004E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>56</v>
       </c>
@@ -8228,7 +8231,7 @@
         <v>8.2500000000000004E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>56</v>
       </c>
@@ -8329,7 +8332,7 @@
         <v>0.11561</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -8430,7 +8433,7 @@
         <v>0.14563999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>56</v>
       </c>
@@ -8531,7 +8534,7 @@
         <v>0.14563999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>56</v>
       </c>
@@ -8632,7 +8635,7 @@
         <v>0.14563999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>56</v>
       </c>
@@ -8733,7 +8736,7 @@
         <v>0.14563999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>56</v>
       </c>
@@ -8834,7 +8837,7 @@
         <v>0.12100000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>56</v>
       </c>
@@ -8935,7 +8938,7 @@
         <v>0.17347000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>56</v>
       </c>
@@ -9036,7 +9039,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>56</v>
       </c>
@@ -9137,7 +9140,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>56</v>
       </c>
@@ -9238,7 +9241,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>56</v>
       </c>
@@ -9339,7 +9342,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>56</v>
       </c>
@@ -9440,7 +9443,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>56</v>
       </c>
@@ -9541,7 +9544,7 @@
         <v>0.12100000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>56</v>
       </c>
@@ -9642,7 +9645,7 @@
         <v>0.12100000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>56</v>
       </c>
@@ -9743,7 +9746,7 @@
         <v>0.17347000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>56</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>0.17347000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>56</v>
       </c>
@@ -9945,7 +9948,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>56</v>
       </c>
@@ -10046,7 +10049,7 @@
         <v>0.20350000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>56</v>
       </c>
@@ -29829,7 +29832,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>27</v>
       </c>
@@ -29995,7 +29998,7 @@
       <c r="AB302" s="5"/>
       <c r="AC302" s="5"/>
     </row>
-    <row r="303" spans="1:31" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>29</v>
       </c>
@@ -35625,7 +35628,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>331</v>
       </c>
@@ -35710,7 +35713,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>331</v>
       </c>
@@ -35795,7 +35798,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="372" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>331</v>
       </c>
@@ -35880,7 +35883,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="373" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>331</v>
       </c>
@@ -35965,7 +35968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>331</v>
       </c>
@@ -35982,7 +35985,7 @@
         <v>343</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G374" s="3" t="s">
         <v>85</v>
@@ -36050,7 +36053,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="375" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>331</v>
       </c>
@@ -36067,7 +36070,7 @@
         <v>336</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G375" s="3" t="s">
         <v>85</v>
@@ -36081,61 +36084,61 @@
         <v>66</v>
       </c>
       <c r="L375" s="3">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="M375" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N375" s="3">
+        <v>200</v>
+      </c>
+      <c r="O375" s="3">
+        <v>150</v>
+      </c>
+      <c r="P375" s="3">
         <v>100</v>
       </c>
-      <c r="O375" s="3">
-        <v>80</v>
-      </c>
-      <c r="P375" s="3">
-        <v>60</v>
-      </c>
       <c r="Q375" s="3">
+        <v>200</v>
+      </c>
+      <c r="R375" s="3">
+        <v>150</v>
+      </c>
+      <c r="S375" s="3">
         <v>100</v>
       </c>
-      <c r="R375" s="3">
-        <v>80</v>
-      </c>
-      <c r="S375" s="3">
-        <v>60</v>
-      </c>
       <c r="T375" s="3">
+        <v>200</v>
+      </c>
+      <c r="U375" s="3">
+        <v>150</v>
+      </c>
+      <c r="V375" s="3">
         <v>100</v>
       </c>
-      <c r="U375" s="3">
-        <v>80</v>
-      </c>
-      <c r="V375" s="3">
-        <v>60</v>
-      </c>
       <c r="W375" s="3">
+        <v>200</v>
+      </c>
+      <c r="X375" s="3">
+        <v>150</v>
+      </c>
+      <c r="Y375" s="3">
         <v>100</v>
       </c>
-      <c r="X375" s="3">
-        <v>80</v>
-      </c>
-      <c r="Y375" s="3">
-        <v>60</v>
-      </c>
       <c r="Z375" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA375" s="3">
+        <v>150</v>
+      </c>
+      <c r="AB375" s="3">
         <v>100</v>
       </c>
-      <c r="AA375" s="3">
-        <v>80</v>
-      </c>
-      <c r="AB375" s="3">
-        <v>60</v>
-      </c>
       <c r="AC375" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="376" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="376" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>331</v>
       </c>
@@ -36152,7 +36155,7 @@
         <v>337</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G376" s="3" t="s">
         <v>85</v>
@@ -36166,61 +36169,61 @@
         <v>66</v>
       </c>
       <c r="L376" s="3">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="M376" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="N376" s="3">
+        <v>400</v>
+      </c>
+      <c r="O376" s="3">
         <v>200</v>
       </c>
-      <c r="O376" s="3">
-        <v>170</v>
-      </c>
       <c r="P376" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Q376" s="3">
+        <v>400</v>
+      </c>
+      <c r="R376" s="3">
         <v>200</v>
       </c>
-      <c r="R376" s="3">
-        <v>170</v>
-      </c>
       <c r="S376" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="T376" s="3">
+        <v>400</v>
+      </c>
+      <c r="U376" s="3">
         <v>200</v>
       </c>
-      <c r="U376" s="3">
-        <v>170</v>
-      </c>
       <c r="V376" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="W376" s="3">
+        <v>400</v>
+      </c>
+      <c r="X376" s="3">
         <v>200</v>
       </c>
-      <c r="X376" s="3">
-        <v>170</v>
-      </c>
       <c r="Y376" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="Z376" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA376" s="3">
         <v>200</v>
       </c>
-      <c r="AA376" s="3">
-        <v>170</v>
-      </c>
       <c r="AB376" s="3">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AC376" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="377" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="377" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>331</v>
       </c>
@@ -36307,7 +36310,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="378" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>331</v>
       </c>
@@ -36324,7 +36327,7 @@
         <v>341</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>98</v>
+        <v>346</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>85</v>
@@ -36340,61 +36343,61 @@
         <v>66</v>
       </c>
       <c r="L378" s="3">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="M378" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="N378" s="3">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="O378" s="3">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="P378" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="Q378" s="3">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="R378" s="3">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="S378" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="T378" s="3">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="U378" s="3">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="V378" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="W378" s="3">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="X378" s="3">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="Y378" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="Z378" s="3">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="AA378" s="3">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AB378" s="3">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AC378" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="379" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>331</v>
       </c>
@@ -36479,7 +36482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>331</v>
       </c>
@@ -36540,7 +36543,7 @@
       <c r="AB380" s="3"/>
       <c r="AC380" s="3"/>
     </row>
-    <row r="381" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>331</v>
       </c>
@@ -36601,7 +36604,7 @@
       <c r="AB381" s="3"/>
       <c r="AC381" s="3"/>
     </row>
-    <row r="382" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>331</v>
       </c>
@@ -36662,7 +36665,7 @@
       <c r="AB382" s="3"/>
       <c r="AC382" s="3"/>
     </row>
-    <row r="383" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>331</v>
       </c>
@@ -36723,7 +36726,7 @@
       <c r="AB383" s="3"/>
       <c r="AC383" s="3"/>
     </row>
-    <row r="384" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>331</v>
       </c>
@@ -36784,7 +36787,7 @@
       <c r="AB384" s="3"/>
       <c r="AC384" s="3"/>
     </row>
-    <row r="385" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>331</v>
       </c>
@@ -36845,7 +36848,7 @@
       <c r="AB385" s="3"/>
       <c r="AC385" s="3"/>
     </row>
-    <row r="386" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>331</v>
       </c>
@@ -36906,7 +36909,7 @@
       <c r="AB386" s="3"/>
       <c r="AC386" s="3"/>
     </row>
-    <row r="387" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>331</v>
       </c>
@@ -36971,7 +36974,16 @@
   <autoFilter ref="A2:AC387" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="maintenance cost per km"/>
+        <filter val="charger efficiency"/>
+        <filter val="charger mass"/>
+        <filter val="depot charger capacity charger per kW-year"/>
+        <filter val="depot charger capex per kW"/>
+        <filter val="depot charger connection per kW"/>
+        <filter val="depot charger installation per kW"/>
+        <filter val="depot charger lifetime"/>
+        <filter val="depot charger O&amp;M share"/>
+        <filter val="depot charger power"/>
+        <filter val="trucks per depot charger"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_truck/dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/carculator_truck/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105AE367-78D3-384B-8EB8-222C9EF14A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6DDF58-F580-5A4E-AF53-3B3FE70CF2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="346">
   <si>
     <t>power to mass ratio</t>
   </si>
@@ -1091,20 +1091,17 @@
   <si>
     <t>ICEV-d, HEV-d, ICEV-g, FCEV, PHEV-c-d</t>
   </si>
-  <si>
-    <t>€/kW/year</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1214,7 +1211,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1237,7 +1234,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1246,7 +1243,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1258,7 +1255,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1267,24 +1264,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1299,7 +1296,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
@@ -1315,7 +1312,7 @@
     <cellStyle name="Normal 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
@@ -1623,10 +1620,10 @@
   <dimension ref="A1:AU387"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="U301" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U378" sqref="U378"/>
+      <selection pane="bottomRight" activeCell="B394" sqref="B394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -29832,7 +29829,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3" t="s">
         <v>27</v>
       </c>
@@ -29998,7 +29995,7 @@
       <c r="AB302" s="5"/>
       <c r="AC302" s="5"/>
     </row>
-    <row r="303" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:31" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3" t="s">
         <v>29</v>
       </c>
@@ -33765,7 +33762,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="345" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A345" s="3" t="s">
         <v>56</v>
       </c>
@@ -33852,7 +33849,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="346" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A346" s="3" t="s">
         <v>56</v>
       </c>
@@ -33939,7 +33936,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A347" s="3" t="s">
         <v>56</v>
       </c>
@@ -35628,7 +35625,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="3" t="s">
         <v>331</v>
       </c>
@@ -35713,7 +35710,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="3" t="s">
         <v>331</v>
       </c>
@@ -35798,7 +35795,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="3" t="s">
         <v>331</v>
       </c>
@@ -35883,7 +35880,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="3" t="s">
         <v>331</v>
       </c>
@@ -35968,7 +35965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="3" t="s">
         <v>331</v>
       </c>
@@ -35985,7 +35982,7 @@
         <v>343</v>
       </c>
       <c r="F374" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G374" s="3" t="s">
         <v>85</v>
@@ -36053,7 +36050,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="3" t="s">
         <v>331</v>
       </c>
@@ -36070,7 +36067,7 @@
         <v>336</v>
       </c>
       <c r="F375" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G375" s="3" t="s">
         <v>85</v>
@@ -36084,61 +36081,61 @@
         <v>66</v>
       </c>
       <c r="L375" s="3">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="M375" s="3">
+        <v>60</v>
+      </c>
+      <c r="N375" s="3">
         <v>100</v>
       </c>
-      <c r="N375" s="3">
-        <v>200</v>
-      </c>
       <c r="O375" s="3">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="P375" s="3">
+        <v>60</v>
+      </c>
+      <c r="Q375" s="3">
         <v>100</v>
       </c>
-      <c r="Q375" s="3">
-        <v>200</v>
-      </c>
       <c r="R375" s="3">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="S375" s="3">
+        <v>60</v>
+      </c>
+      <c r="T375" s="3">
         <v>100</v>
       </c>
-      <c r="T375" s="3">
-        <v>200</v>
-      </c>
       <c r="U375" s="3">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="V375" s="3">
+        <v>60</v>
+      </c>
+      <c r="W375" s="3">
         <v>100</v>
       </c>
-      <c r="W375" s="3">
-        <v>200</v>
-      </c>
       <c r="X375" s="3">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="Y375" s="3">
+        <v>60</v>
+      </c>
+      <c r="Z375" s="3">
         <v>100</v>
       </c>
-      <c r="Z375" s="3">
-        <v>200</v>
-      </c>
       <c r="AA375" s="3">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AB375" s="3">
+        <v>60</v>
+      </c>
+      <c r="AC375" s="3">
         <v>100</v>
       </c>
-      <c r="AC375" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="3" t="s">
         <v>331</v>
       </c>
@@ -36155,7 +36152,7 @@
         <v>337</v>
       </c>
       <c r="F376" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G376" s="3" t="s">
         <v>85</v>
@@ -36169,61 +36166,61 @@
         <v>66</v>
       </c>
       <c r="L376" s="3">
+        <v>170</v>
+      </c>
+      <c r="M376" s="3">
+        <v>150</v>
+      </c>
+      <c r="N376" s="3">
         <v>200</v>
       </c>
-      <c r="M376" s="3">
-        <v>0</v>
-      </c>
-      <c r="N376" s="3">
-        <v>400</v>
-      </c>
       <c r="O376" s="3">
+        <v>170</v>
+      </c>
+      <c r="P376" s="3">
+        <v>150</v>
+      </c>
+      <c r="Q376" s="3">
         <v>200</v>
       </c>
-      <c r="P376" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q376" s="3">
-        <v>400</v>
-      </c>
       <c r="R376" s="3">
+        <v>170</v>
+      </c>
+      <c r="S376" s="3">
+        <v>150</v>
+      </c>
+      <c r="T376" s="3">
         <v>200</v>
       </c>
-      <c r="S376" s="3">
-        <v>0</v>
-      </c>
-      <c r="T376" s="3">
-        <v>400</v>
-      </c>
       <c r="U376" s="3">
+        <v>170</v>
+      </c>
+      <c r="V376" s="3">
+        <v>150</v>
+      </c>
+      <c r="W376" s="3">
         <v>200</v>
       </c>
-      <c r="V376" s="3">
-        <v>0</v>
-      </c>
-      <c r="W376" s="3">
-        <v>400</v>
-      </c>
       <c r="X376" s="3">
+        <v>170</v>
+      </c>
+      <c r="Y376" s="3">
+        <v>150</v>
+      </c>
+      <c r="Z376" s="3">
         <v>200</v>
       </c>
-      <c r="Y376" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z376" s="3">
-        <v>400</v>
-      </c>
       <c r="AA376" s="3">
+        <v>170</v>
+      </c>
+      <c r="AB376" s="3">
+        <v>150</v>
+      </c>
+      <c r="AC376" s="3">
         <v>200</v>
       </c>
-      <c r="AB376" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC376" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="3" t="s">
         <v>331</v>
       </c>
@@ -36310,7 +36307,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="3" t="s">
         <v>331</v>
       </c>
@@ -36327,7 +36324,7 @@
         <v>341</v>
       </c>
       <c r="F378" s="3" t="s">
-        <v>346</v>
+        <v>98</v>
       </c>
       <c r="G378" s="3" t="s">
         <v>85</v>
@@ -36343,61 +36340,61 @@
         <v>66</v>
       </c>
       <c r="L378" s="3">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="M378" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="N378" s="3">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="O378" s="3">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="P378" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Q378" s="3">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="R378" s="3">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="S378" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="T378" s="3">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="U378" s="3">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="V378" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="W378" s="3">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="X378" s="3">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="Y378" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="Z378" s="3">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AA378" s="3">
-        <v>140</v>
+        <v>40</v>
       </c>
       <c r="AB378" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AC378" s="3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="379" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="3" t="s">
         <v>331</v>
       </c>
@@ -36482,7 +36479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="3" t="s">
         <v>331</v>
       </c>
@@ -36543,7 +36540,7 @@
       <c r="AB380" s="3"/>
       <c r="AC380" s="3"/>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="3" t="s">
         <v>331</v>
       </c>
@@ -36604,7 +36601,7 @@
       <c r="AB381" s="3"/>
       <c r="AC381" s="3"/>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="3" t="s">
         <v>331</v>
       </c>
@@ -36665,7 +36662,7 @@
       <c r="AB382" s="3"/>
       <c r="AC382" s="3"/>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="3" t="s">
         <v>331</v>
       </c>
@@ -36726,7 +36723,7 @@
       <c r="AB383" s="3"/>
       <c r="AC383" s="3"/>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="3" t="s">
         <v>331</v>
       </c>
@@ -36787,7 +36784,7 @@
       <c r="AB384" s="3"/>
       <c r="AC384" s="3"/>
     </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="3" t="s">
         <v>331</v>
       </c>
@@ -36848,7 +36845,7 @@
       <c r="AB385" s="3"/>
       <c r="AC385" s="3"/>
     </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="3" t="s">
         <v>331</v>
       </c>
@@ -36909,7 +36906,7 @@
       <c r="AB386" s="3"/>
       <c r="AC386" s="3"/>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="3" t="s">
         <v>331</v>
       </c>
@@ -36974,16 +36971,7 @@
   <autoFilter ref="A2:AC387" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="4">
       <filters>
-        <filter val="charger efficiency"/>
-        <filter val="charger mass"/>
-        <filter val="depot charger capacity charger per kW-year"/>
-        <filter val="depot charger capex per kW"/>
-        <filter val="depot charger connection per kW"/>
-        <filter val="depot charger installation per kW"/>
-        <filter val="depot charger lifetime"/>
-        <filter val="depot charger O&amp;M share"/>
-        <filter val="depot charger power"/>
-        <filter val="trucks per depot charger"/>
+        <filter val="residual value share"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_truck/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19670818-80FF-8849-846A-7D7DCBA7C246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0025DF65-9A0D-634B-8CA8-51270B5441D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1626,10 +1626,10 @@
   <dimension ref="A1:AU405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="AB82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="W80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC92" sqref="AC92"/>
+      <selection pane="bottomRight" activeCell="AA92" sqref="AA92:AC112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -10186,76 +10186,70 @@
         <v>66</v>
       </c>
       <c r="L92" s="9">
-        <f>1.2*1.3</f>
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="M92" s="9">
         <f t="shared" si="45"/>
-        <v>1.4040000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="N92" s="9">
         <f t="shared" si="46"/>
-        <v>1.7160000000000002</v>
+        <v>1.87</v>
       </c>
       <c r="O92" s="9">
-        <f>1.2*1.3</f>
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="P92" s="9">
         <f t="shared" si="47"/>
-        <v>1.4040000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="Q92" s="9">
         <f t="shared" si="48"/>
-        <v>1.7160000000000002</v>
+        <v>1.87</v>
       </c>
       <c r="R92" s="9">
-        <f>1.2*1.3</f>
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="S92" s="9">
         <f t="shared" si="49"/>
-        <v>1.4040000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="T92" s="9">
         <f t="shared" si="50"/>
-        <v>1.7160000000000002</v>
+        <v>1.87</v>
       </c>
       <c r="U92" s="9">
-        <f>1.2*1.3</f>
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="V92" s="9">
         <f t="shared" si="51"/>
-        <v>1.4040000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="W92" s="9">
         <f t="shared" si="52"/>
-        <v>1.7160000000000002</v>
+        <v>1.87</v>
       </c>
       <c r="X92" s="9">
-        <f>1.2*1.3</f>
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="Y92" s="9">
         <f t="shared" si="53"/>
-        <v>1.4040000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="Z92" s="9">
         <f t="shared" si="54"/>
-        <v>1.7160000000000002</v>
+        <v>1.87</v>
       </c>
       <c r="AA92" s="9">
-        <f>1.2*1.3</f>
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AB92" s="9">
         <f t="shared" si="55"/>
-        <v>1.4040000000000001</v>
+        <v>1.53</v>
       </c>
       <c r="AC92" s="9">
         <f t="shared" si="56"/>
-        <v>1.7160000000000002</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
@@ -10285,76 +10279,70 @@
         <v>66</v>
       </c>
       <c r="L93" s="9">
-        <f>1.2*1.25</f>
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="M93" s="9">
         <f t="shared" si="45"/>
-        <v>1.35</v>
+        <v>1.395</v>
       </c>
       <c r="N93" s="9">
         <f t="shared" si="46"/>
-        <v>1.6500000000000001</v>
+        <v>1.7050000000000003</v>
       </c>
       <c r="O93" s="9">
-        <f>1.2*1.25</f>
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P93" s="9">
         <f t="shared" si="47"/>
-        <v>1.35</v>
+        <v>1.395</v>
       </c>
       <c r="Q93" s="9">
         <f t="shared" si="48"/>
-        <v>1.6500000000000001</v>
+        <v>1.7050000000000003</v>
       </c>
       <c r="R93" s="9">
-        <f>1.2*1.25</f>
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="S93" s="9">
         <f t="shared" si="49"/>
-        <v>1.35</v>
+        <v>1.395</v>
       </c>
       <c r="T93" s="9">
         <f t="shared" si="50"/>
-        <v>1.6500000000000001</v>
+        <v>1.7050000000000003</v>
       </c>
       <c r="U93" s="9">
-        <f>1.2*1.25</f>
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="V93" s="9">
         <f t="shared" si="51"/>
-        <v>1.35</v>
+        <v>1.395</v>
       </c>
       <c r="W93" s="9">
         <f t="shared" si="52"/>
-        <v>1.6500000000000001</v>
+        <v>1.7050000000000003</v>
       </c>
       <c r="X93" s="9">
-        <f>1.2*1.25</f>
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Y93" s="9">
         <f t="shared" si="53"/>
-        <v>1.35</v>
+        <v>1.395</v>
       </c>
       <c r="Z93" s="9">
         <f t="shared" si="54"/>
-        <v>1.6500000000000001</v>
+        <v>1.7050000000000003</v>
       </c>
       <c r="AA93" s="9">
-        <f>1.2*1.25</f>
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AB93" s="9">
         <f t="shared" si="55"/>
-        <v>1.35</v>
+        <v>1.395</v>
       </c>
       <c r="AC93" s="9">
         <f t="shared" si="56"/>
-        <v>1.6500000000000001</v>
+        <v>1.7050000000000003</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.2">
@@ -10663,76 +10651,70 @@
         <v>66</v>
       </c>
       <c r="L97" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M97" s="9">
         <f t="shared" si="45"/>
-        <v>1.296</v>
+        <v>1.35</v>
       </c>
       <c r="N97" s="9">
         <f t="shared" si="46"/>
-        <v>1.5840000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="O97" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P97" s="9">
         <f t="shared" si="47"/>
-        <v>1.296</v>
+        <v>1.35</v>
       </c>
       <c r="Q97" s="9">
         <f t="shared" si="48"/>
-        <v>1.5840000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="R97" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S97" s="9">
         <f t="shared" si="49"/>
-        <v>1.296</v>
+        <v>1.35</v>
       </c>
       <c r="T97" s="9">
         <f t="shared" si="50"/>
-        <v>1.5840000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="U97" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V97" s="9">
         <f t="shared" si="51"/>
-        <v>1.296</v>
+        <v>1.35</v>
       </c>
       <c r="W97" s="9">
         <f t="shared" si="52"/>
-        <v>1.5840000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="X97" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y97" s="9">
         <f t="shared" si="53"/>
-        <v>1.296</v>
+        <v>1.35</v>
       </c>
       <c r="Z97" s="9">
         <f t="shared" si="54"/>
-        <v>1.5840000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="AA97" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AB97" s="9">
         <f t="shared" si="55"/>
-        <v>1.296</v>
+        <v>1.35</v>
       </c>
       <c r="AC97" s="9">
         <f t="shared" si="56"/>
-        <v>1.5840000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.2">
@@ -10855,76 +10837,70 @@
         <v>66</v>
       </c>
       <c r="L99" s="9">
-        <f>1.2*1.1</f>
-        <v>1.32</v>
+        <v>2.1</v>
       </c>
       <c r="M99" s="9">
         <f>L99*0.9</f>
-        <v>1.1880000000000002</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="N99" s="9">
         <f>L99*1.1</f>
-        <v>1.4520000000000002</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="O99" s="9">
-        <f>1.2*1.1</f>
-        <v>1.32</v>
+        <v>2.1</v>
       </c>
       <c r="P99" s="9">
         <f>O99*0.9</f>
-        <v>1.1880000000000002</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="Q99" s="9">
         <f>O99*1.1</f>
-        <v>1.4520000000000002</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="R99" s="9">
-        <f>1.2*1.1</f>
-        <v>1.32</v>
+        <v>2.1</v>
       </c>
       <c r="S99" s="9">
         <f>R99*0.9</f>
-        <v>1.1880000000000002</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T99" s="9">
         <f>R99*1.1</f>
-        <v>1.4520000000000002</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="U99" s="9">
-        <f>1.2*1.1</f>
-        <v>1.32</v>
+        <v>2.1</v>
       </c>
       <c r="V99" s="9">
         <f>U99*0.9</f>
-        <v>1.1880000000000002</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="W99" s="9">
         <f>U99*1.1</f>
-        <v>1.4520000000000002</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="X99" s="9">
-        <f>1.2*1.1</f>
-        <v>1.32</v>
+        <v>2.1</v>
       </c>
       <c r="Y99" s="9">
         <f>X99*0.9</f>
-        <v>1.1880000000000002</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="Z99" s="9">
         <f>X99*1.1</f>
-        <v>1.4520000000000002</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="AA99" s="9">
-        <f>1.2*1.1</f>
-        <v>1.32</v>
+        <v>2.1</v>
       </c>
       <c r="AB99" s="9">
         <f>AA99*0.9</f>
-        <v>1.1880000000000002</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="AC99" s="9">
         <f>AA99*1.1</f>
-        <v>1.4520000000000002</v>
+        <v>2.3100000000000005</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.2">
@@ -10954,76 +10930,70 @@
         <v>66</v>
       </c>
       <c r="L100" s="9">
-        <f>1.2*1.05</f>
-        <v>1.26</v>
+        <v>1.95</v>
       </c>
       <c r="M100" s="9">
         <f t="shared" ref="M100:M112" si="57">L100*0.9</f>
-        <v>1.1340000000000001</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="N100" s="9">
         <f t="shared" ref="N100:N112" si="58">L100*1.1</f>
-        <v>1.3860000000000001</v>
+        <v>2.145</v>
       </c>
       <c r="O100" s="9">
-        <f>1.2*1.05</f>
-        <v>1.26</v>
+        <v>1.95</v>
       </c>
       <c r="P100" s="9">
         <f t="shared" ref="P100:P112" si="59">O100*0.9</f>
-        <v>1.1340000000000001</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="Q100" s="9">
         <f t="shared" ref="Q100:Q112" si="60">O100*1.1</f>
-        <v>1.3860000000000001</v>
+        <v>2.145</v>
       </c>
       <c r="R100" s="9">
-        <f>1.2*1.05</f>
-        <v>1.26</v>
+        <v>1.95</v>
       </c>
       <c r="S100" s="9">
         <f t="shared" ref="S100:S112" si="61">R100*0.9</f>
-        <v>1.1340000000000001</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="T100" s="9">
         <f t="shared" ref="T100:T112" si="62">R100*1.1</f>
-        <v>1.3860000000000001</v>
+        <v>2.145</v>
       </c>
       <c r="U100" s="9">
-        <f>1.2*1.05</f>
-        <v>1.26</v>
+        <v>1.95</v>
       </c>
       <c r="V100" s="9">
         <f t="shared" ref="V100:V112" si="63">U100*0.9</f>
-        <v>1.1340000000000001</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="W100" s="9">
         <f t="shared" ref="W100:W112" si="64">U100*1.1</f>
-        <v>1.3860000000000001</v>
+        <v>2.145</v>
       </c>
       <c r="X100" s="9">
-        <f>1.2*1.05</f>
-        <v>1.26</v>
+        <v>1.95</v>
       </c>
       <c r="Y100" s="9">
         <f t="shared" ref="Y100:Y112" si="65">X100*0.9</f>
-        <v>1.1340000000000001</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="Z100" s="9">
         <f t="shared" ref="Z100:Z112" si="66">X100*1.1</f>
-        <v>1.3860000000000001</v>
+        <v>2.145</v>
       </c>
       <c r="AA100" s="9">
-        <f>1.2*1.05</f>
-        <v>1.26</v>
+        <v>1.95</v>
       </c>
       <c r="AB100" s="9">
         <f t="shared" ref="AB100:AB112" si="67">AA100*0.9</f>
-        <v>1.1340000000000001</v>
+        <v>1.7549999999999999</v>
       </c>
       <c r="AC100" s="9">
         <f t="shared" ref="AC100:AC112" si="68">AA100*1.1</f>
-        <v>1.3860000000000001</v>
+        <v>2.145</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.2">
@@ -11053,70 +11023,70 @@
         <v>66</v>
       </c>
       <c r="L101" s="9">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="M101" s="9">
         <f t="shared" si="57"/>
-        <v>0.94500000000000006</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="N101" s="9">
         <f t="shared" si="58"/>
-        <v>1.1550000000000002</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="O101" s="9">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="P101" s="9">
         <f t="shared" si="59"/>
-        <v>0.94500000000000006</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="Q101" s="9">
         <f t="shared" si="60"/>
-        <v>1.1550000000000002</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="R101" s="9">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="S101" s="9">
         <f t="shared" si="61"/>
-        <v>0.94500000000000006</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="T101" s="9">
         <f t="shared" si="62"/>
-        <v>1.1550000000000002</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="U101" s="9">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="V101" s="9">
         <f t="shared" si="63"/>
-        <v>0.94500000000000006</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="W101" s="9">
         <f t="shared" si="64"/>
-        <v>1.1550000000000002</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="X101" s="9">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="Y101" s="9">
         <f t="shared" si="65"/>
-        <v>0.94500000000000006</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="Z101" s="9">
         <f t="shared" si="66"/>
-        <v>1.1550000000000002</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="AA101" s="9">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="AB101" s="9">
         <f t="shared" si="67"/>
-        <v>0.94500000000000006</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="AC101" s="9">
         <f t="shared" si="68"/>
-        <v>1.1550000000000002</v>
+        <v>1.7600000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.2">
@@ -11146,70 +11116,70 @@
         <v>66</v>
       </c>
       <c r="L102" s="9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="M102" s="9">
         <f t="shared" si="57"/>
-        <v>1.08</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="N102" s="9">
         <f t="shared" si="58"/>
-        <v>1.32</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="O102" s="9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="P102" s="9">
         <f t="shared" si="59"/>
-        <v>1.08</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="Q102" s="9">
         <f t="shared" si="60"/>
-        <v>1.32</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="R102" s="9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="S102" s="9">
         <f t="shared" si="61"/>
-        <v>1.08</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="T102" s="9">
         <f t="shared" si="62"/>
-        <v>1.32</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="U102" s="9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="V102" s="9">
         <f t="shared" si="63"/>
-        <v>1.08</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="W102" s="9">
         <f t="shared" si="64"/>
-        <v>1.32</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="X102" s="9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="Y102" s="9">
         <f t="shared" si="65"/>
-        <v>1.08</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="Z102" s="9">
         <f t="shared" si="66"/>
-        <v>1.32</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="AA102" s="9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AB102" s="9">
         <f t="shared" si="67"/>
-        <v>1.08</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="AC102" s="9">
         <f t="shared" si="68"/>
-        <v>1.32</v>
+        <v>1.7600000000000002</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.2">
@@ -11239,70 +11209,70 @@
         <v>66</v>
       </c>
       <c r="L103" s="9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="M103" s="9">
         <f t="shared" si="57"/>
-        <v>1.08</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="N103" s="9">
         <f t="shared" si="58"/>
-        <v>1.32</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="O103" s="9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="P103" s="9">
         <f t="shared" si="59"/>
-        <v>1.08</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="Q103" s="9">
         <f t="shared" si="60"/>
-        <v>1.32</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="R103" s="9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="S103" s="9">
         <f t="shared" si="61"/>
-        <v>1.08</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="T103" s="9">
         <f t="shared" si="62"/>
-        <v>1.32</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="U103" s="9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="V103" s="9">
         <f t="shared" si="63"/>
-        <v>1.08</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="W103" s="9">
         <f t="shared" si="64"/>
-        <v>1.32</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="X103" s="9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="Y103" s="9">
         <f t="shared" si="65"/>
-        <v>1.08</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="Z103" s="9">
         <f t="shared" si="66"/>
-        <v>1.32</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="AA103" s="9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AB103" s="9">
         <f t="shared" si="67"/>
-        <v>1.08</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="AC103" s="9">
         <f t="shared" si="68"/>
-        <v>1.32</v>
+        <v>1.7600000000000002</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.2">
@@ -11332,70 +11302,70 @@
         <v>66</v>
       </c>
       <c r="L104" s="9">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="M104" s="9">
         <f t="shared" si="57"/>
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="N104" s="9">
         <f t="shared" si="58"/>
-        <v>1.32</v>
+        <v>2.09</v>
       </c>
       <c r="O104" s="9">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="P104" s="9">
         <f t="shared" si="59"/>
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="Q104" s="9">
         <f t="shared" si="60"/>
-        <v>1.32</v>
+        <v>2.09</v>
       </c>
       <c r="R104" s="9">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="S104" s="9">
         <f t="shared" si="61"/>
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="T104" s="9">
         <f t="shared" si="62"/>
-        <v>1.32</v>
+        <v>2.09</v>
       </c>
       <c r="U104" s="9">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="V104" s="9">
         <f t="shared" si="63"/>
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="W104" s="9">
         <f t="shared" si="64"/>
-        <v>1.32</v>
+        <v>2.09</v>
       </c>
       <c r="X104" s="9">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="Y104" s="9">
         <f t="shared" si="65"/>
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="Z104" s="9">
         <f t="shared" si="66"/>
-        <v>1.32</v>
+        <v>2.09</v>
       </c>
       <c r="AA104" s="9">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="AB104" s="9">
         <f t="shared" si="67"/>
-        <v>1.08</v>
+        <v>1.71</v>
       </c>
       <c r="AC104" s="9">
         <f t="shared" si="68"/>
-        <v>1.32</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.2">
@@ -11425,70 +11395,70 @@
         <v>66</v>
       </c>
       <c r="L105" s="9">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="M105" s="9">
         <f t="shared" si="57"/>
-        <v>1.08</v>
+        <v>1.62</v>
       </c>
       <c r="N105" s="9">
         <f t="shared" si="58"/>
-        <v>1.32</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="O105" s="9">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="P105" s="9">
         <f t="shared" si="59"/>
-        <v>1.08</v>
+        <v>1.62</v>
       </c>
       <c r="Q105" s="9">
         <f t="shared" si="60"/>
-        <v>1.32</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="R105" s="9">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="S105" s="9">
         <f t="shared" si="61"/>
-        <v>1.08</v>
+        <v>1.62</v>
       </c>
       <c r="T105" s="9">
         <f t="shared" si="62"/>
-        <v>1.32</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="U105" s="9">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="V105" s="9">
         <f t="shared" si="63"/>
-        <v>1.08</v>
+        <v>1.62</v>
       </c>
       <c r="W105" s="9">
         <f t="shared" si="64"/>
-        <v>1.32</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="X105" s="9">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="Y105" s="9">
         <f t="shared" si="65"/>
-        <v>1.08</v>
+        <v>1.62</v>
       </c>
       <c r="Z105" s="9">
         <f t="shared" si="66"/>
-        <v>1.32</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="AA105" s="9">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AB105" s="9">
         <f t="shared" si="67"/>
-        <v>1.08</v>
+        <v>1.62</v>
       </c>
       <c r="AC105" s="9">
         <f t="shared" si="68"/>
-        <v>1.32</v>
+        <v>1.9800000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.2">
@@ -11518,70 +11488,70 @@
         <v>66</v>
       </c>
       <c r="L106" s="9">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="M106" s="9">
         <f t="shared" si="57"/>
-        <v>1.8</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="N106" s="9">
         <f t="shared" si="58"/>
-        <v>2.2000000000000002</v>
+        <v>2.8600000000000003</v>
       </c>
       <c r="O106" s="9">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="P106" s="9">
         <f t="shared" si="59"/>
-        <v>1.8</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="Q106" s="9">
         <f t="shared" si="60"/>
-        <v>2.2000000000000002</v>
+        <v>2.8600000000000003</v>
       </c>
       <c r="R106" s="9">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="S106" s="9">
         <f t="shared" si="61"/>
-        <v>1.8</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="T106" s="9">
         <f t="shared" si="62"/>
-        <v>2.2000000000000002</v>
+        <v>2.8600000000000003</v>
       </c>
       <c r="U106" s="9">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="V106" s="9">
         <f t="shared" si="63"/>
-        <v>1.8</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="W106" s="9">
         <f t="shared" si="64"/>
-        <v>2.2000000000000002</v>
+        <v>2.8600000000000003</v>
       </c>
       <c r="X106" s="9">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y106" s="9">
         <f t="shared" si="65"/>
-        <v>1.8</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="Z106" s="9">
         <f t="shared" si="66"/>
-        <v>2.2000000000000002</v>
+        <v>2.8600000000000003</v>
       </c>
       <c r="AA106" s="9">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AB106" s="9">
         <f t="shared" si="67"/>
-        <v>1.8</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="AC106" s="9">
         <f t="shared" si="68"/>
-        <v>2.2000000000000002</v>
+        <v>2.8600000000000003</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.2">
@@ -11611,76 +11581,70 @@
         <v>66</v>
       </c>
       <c r="L107" s="9">
-        <f>1.2*1.4</f>
-        <v>1.68</v>
+        <v>2.1</v>
       </c>
       <c r="M107" s="9">
         <f t="shared" si="57"/>
-        <v>1.512</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="N107" s="9">
         <f t="shared" si="58"/>
-        <v>1.8480000000000001</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="O107" s="9">
-        <f>1.2*1.4</f>
-        <v>1.68</v>
+        <v>2.1</v>
       </c>
       <c r="P107" s="9">
         <f t="shared" si="59"/>
-        <v>1.512</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="Q107" s="9">
         <f t="shared" si="60"/>
-        <v>1.8480000000000001</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="R107" s="9">
-        <f>1.2*1.4</f>
-        <v>1.68</v>
+        <v>2.1</v>
       </c>
       <c r="S107" s="9">
         <f t="shared" si="61"/>
-        <v>1.512</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T107" s="9">
         <f t="shared" si="62"/>
-        <v>1.8480000000000001</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="U107" s="9">
-        <f>1.2*1.4</f>
-        <v>1.68</v>
+        <v>2.1</v>
       </c>
       <c r="V107" s="9">
         <f t="shared" si="63"/>
-        <v>1.512</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="W107" s="9">
         <f t="shared" si="64"/>
-        <v>1.8480000000000001</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="X107" s="9">
-        <f>1.2*1.4</f>
-        <v>1.68</v>
+        <v>2.1</v>
       </c>
       <c r="Y107" s="9">
         <f t="shared" si="65"/>
-        <v>1.512</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="Z107" s="9">
         <f t="shared" si="66"/>
-        <v>1.8480000000000001</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="AA107" s="9">
-        <f>1.2*1.4</f>
-        <v>1.68</v>
+        <v>2.1</v>
       </c>
       <c r="AB107" s="9">
         <f t="shared" si="67"/>
-        <v>1.512</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="AC107" s="9">
         <f t="shared" si="68"/>
-        <v>1.8480000000000001</v>
+        <v>2.3100000000000005</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.2">
@@ -11710,70 +11674,70 @@
         <v>66</v>
       </c>
       <c r="L108" s="9">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="M108" s="9">
         <f t="shared" si="57"/>
-        <v>1.35</v>
+        <v>1.575</v>
       </c>
       <c r="N108" s="9">
         <f t="shared" si="58"/>
-        <v>1.6500000000000001</v>
+        <v>1.9250000000000003</v>
       </c>
       <c r="O108" s="9">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="P108" s="9">
         <f t="shared" si="59"/>
-        <v>1.35</v>
+        <v>1.575</v>
       </c>
       <c r="Q108" s="9">
         <f t="shared" si="60"/>
-        <v>1.6500000000000001</v>
+        <v>1.9250000000000003</v>
       </c>
       <c r="R108" s="9">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="S108" s="9">
         <f t="shared" si="61"/>
-        <v>1.35</v>
+        <v>1.575</v>
       </c>
       <c r="T108" s="9">
         <f t="shared" si="62"/>
-        <v>1.6500000000000001</v>
+        <v>1.9250000000000003</v>
       </c>
       <c r="U108" s="9">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="V108" s="9">
         <f t="shared" si="63"/>
-        <v>1.35</v>
+        <v>1.575</v>
       </c>
       <c r="W108" s="9">
         <f t="shared" si="64"/>
-        <v>1.6500000000000001</v>
+        <v>1.9250000000000003</v>
       </c>
       <c r="X108" s="9">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Y108" s="9">
         <f t="shared" si="65"/>
-        <v>1.35</v>
+        <v>1.575</v>
       </c>
       <c r="Z108" s="9">
         <f t="shared" si="66"/>
-        <v>1.6500000000000001</v>
+        <v>1.9250000000000003</v>
       </c>
       <c r="AA108" s="9">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AB108" s="9">
         <f t="shared" si="67"/>
-        <v>1.35</v>
+        <v>1.575</v>
       </c>
       <c r="AC108" s="9">
         <f t="shared" si="68"/>
-        <v>1.6500000000000001</v>
+        <v>1.9250000000000003</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.2">
@@ -11803,70 +11767,70 @@
         <v>66</v>
       </c>
       <c r="L109" s="9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="M109" s="9">
         <f t="shared" si="57"/>
-        <v>1.35</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="N109" s="9">
         <f t="shared" si="58"/>
-        <v>1.6500000000000001</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="O109" s="9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="P109" s="9">
         <f t="shared" si="59"/>
-        <v>1.35</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="Q109" s="9">
         <f t="shared" si="60"/>
-        <v>1.6500000000000001</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="R109" s="9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="S109" s="9">
         <f t="shared" si="61"/>
-        <v>1.35</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="T109" s="9">
         <f t="shared" si="62"/>
-        <v>1.6500000000000001</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="U109" s="9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="V109" s="9">
         <f t="shared" si="63"/>
-        <v>1.35</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="W109" s="9">
         <f t="shared" si="64"/>
-        <v>1.6500000000000001</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="X109" s="9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="Y109" s="9">
         <f t="shared" si="65"/>
-        <v>1.35</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="Z109" s="9">
         <f t="shared" si="66"/>
-        <v>1.6500000000000001</v>
+        <v>1.7600000000000002</v>
       </c>
       <c r="AA109" s="9">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AB109" s="9">
         <f t="shared" si="67"/>
-        <v>1.35</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="AC109" s="9">
         <f t="shared" si="68"/>
-        <v>1.6500000000000001</v>
+        <v>1.7600000000000002</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.2">
@@ -11896,76 +11860,70 @@
         <v>66</v>
       </c>
       <c r="L110" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M110" s="9">
         <f t="shared" si="57"/>
-        <v>1.296</v>
+        <v>1.35</v>
       </c>
       <c r="N110" s="9">
         <f t="shared" si="58"/>
-        <v>1.5840000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="O110" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P110" s="9">
         <f t="shared" si="59"/>
-        <v>1.296</v>
+        <v>1.35</v>
       </c>
       <c r="Q110" s="9">
         <f t="shared" si="60"/>
-        <v>1.5840000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="R110" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S110" s="9">
         <f t="shared" si="61"/>
-        <v>1.296</v>
+        <v>1.35</v>
       </c>
       <c r="T110" s="9">
         <f t="shared" si="62"/>
-        <v>1.5840000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="U110" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V110" s="9">
         <f t="shared" si="63"/>
-        <v>1.296</v>
+        <v>1.35</v>
       </c>
       <c r="W110" s="9">
         <f t="shared" si="64"/>
-        <v>1.5840000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="X110" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Y110" s="9">
         <f t="shared" si="65"/>
-        <v>1.296</v>
+        <v>1.35</v>
       </c>
       <c r="Z110" s="9">
         <f t="shared" si="66"/>
-        <v>1.5840000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="AA110" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AB110" s="9">
         <f t="shared" si="67"/>
-        <v>1.296</v>
+        <v>1.35</v>
       </c>
       <c r="AC110" s="9">
         <f t="shared" si="68"/>
-        <v>1.5840000000000001</v>
+        <v>1.6500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.2">
@@ -11995,76 +11953,70 @@
         <v>66</v>
       </c>
       <c r="L111" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="M111" s="9">
         <f t="shared" si="57"/>
-        <v>1.296</v>
+        <v>1.62</v>
       </c>
       <c r="N111" s="9">
         <f t="shared" si="58"/>
-        <v>1.5840000000000001</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="O111" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="P111" s="9">
         <f t="shared" si="59"/>
-        <v>1.296</v>
+        <v>1.62</v>
       </c>
       <c r="Q111" s="9">
         <f t="shared" si="60"/>
-        <v>1.5840000000000001</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="R111" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="S111" s="9">
         <f t="shared" si="61"/>
-        <v>1.296</v>
+        <v>1.62</v>
       </c>
       <c r="T111" s="9">
         <f t="shared" si="62"/>
-        <v>1.5840000000000001</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="U111" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="V111" s="9">
         <f t="shared" si="63"/>
-        <v>1.296</v>
+        <v>1.62</v>
       </c>
       <c r="W111" s="9">
         <f t="shared" si="64"/>
-        <v>1.5840000000000001</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="X111" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="Y111" s="9">
         <f t="shared" si="65"/>
-        <v>1.296</v>
+        <v>1.62</v>
       </c>
       <c r="Z111" s="9">
         <f t="shared" si="66"/>
-        <v>1.5840000000000001</v>
+        <v>1.9800000000000002</v>
       </c>
       <c r="AA111" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="AB111" s="9">
         <f t="shared" si="67"/>
-        <v>1.296</v>
+        <v>1.62</v>
       </c>
       <c r="AC111" s="9">
         <f t="shared" si="68"/>
-        <v>1.5840000000000001</v>
+        <v>1.9800000000000002</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.2">
@@ -12094,76 +12046,70 @@
         <v>66</v>
       </c>
       <c r="L112" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="M112" s="9">
         <f t="shared" si="57"/>
-        <v>1.296</v>
+        <v>1.53</v>
       </c>
       <c r="N112" s="9">
         <f t="shared" si="58"/>
-        <v>1.5840000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="O112" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="P112" s="9">
         <f t="shared" si="59"/>
-        <v>1.296</v>
+        <v>1.53</v>
       </c>
       <c r="Q112" s="9">
         <f t="shared" si="60"/>
-        <v>1.5840000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="R112" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="S112" s="9">
         <f t="shared" si="61"/>
-        <v>1.296</v>
+        <v>1.53</v>
       </c>
       <c r="T112" s="9">
         <f t="shared" si="62"/>
-        <v>1.5840000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="U112" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="V112" s="9">
         <f t="shared" si="63"/>
-        <v>1.296</v>
+        <v>1.53</v>
       </c>
       <c r="W112" s="9">
         <f t="shared" si="64"/>
-        <v>1.5840000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="X112" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="Y112" s="9">
         <f t="shared" si="65"/>
-        <v>1.296</v>
+        <v>1.53</v>
       </c>
       <c r="Z112" s="9">
         <f t="shared" si="66"/>
-        <v>1.5840000000000001</v>
+        <v>1.87</v>
       </c>
       <c r="AA112" s="9">
-        <f>1.2*1.2</f>
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="AB112" s="9">
         <f t="shared" si="67"/>
-        <v>1.296</v>
+        <v>1.53</v>
       </c>
       <c r="AC112" s="9">
         <f t="shared" si="68"/>
-        <v>1.5840000000000001</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="113" spans="1:29" ht="15" x14ac:dyDescent="0.2">

--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/carculator_truck/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE34616F-41A4-AF44-A47B-185873FFD724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7A64C6-C7BC-6744-9ADB-6B75C193CAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="36560" windowHeight="22720" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1626,10 +1626,10 @@
   <dimension ref="A1:AU405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="O42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="O49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R66" sqref="R66"/>
+      <selection pane="bottomRight" activeCell="U68" sqref="U68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -6613,8 +6613,8 @@
         <v>100</v>
       </c>
       <c r="U58" s="14">
-        <f>AVERAGE(R58,X58)</f>
-        <v>67.825249579876868</v>
+        <f>R58*0.7</f>
+        <v>62.999999999999993</v>
       </c>
       <c r="V58" s="14">
         <v>60</v>
@@ -6689,8 +6689,8 @@
         <v>150</v>
       </c>
       <c r="U59" s="14">
-        <f>AVERAGE(R59,X59)</f>
-        <v>100.86824933980651</v>
+        <f>R59*0.7</f>
+        <v>91</v>
       </c>
       <c r="V59" s="14">
         <v>90</v>
@@ -6765,8 +6765,8 @@
         <v>130</v>
       </c>
       <c r="U60" s="14">
-        <f>AVERAGE(R60,X60)</f>
-        <v>84.346749459841675</v>
+        <f>R60*0.7</f>
+        <v>77</v>
       </c>
       <c r="V60" s="14">
         <v>70</v>
@@ -6841,8 +6841,8 @@
         <v>180</v>
       </c>
       <c r="U61" s="14">
-        <f>AVERAGE(R61,X61)</f>
-        <v>133.91124909973615</v>
+        <f>R61*0.7</f>
+        <v>118.99999999999999</v>
       </c>
       <c r="V61" s="14">
         <v>140</v>
@@ -6917,8 +6917,8 @@
         <v>115</v>
       </c>
       <c r="U62" s="14">
-        <f>AVERAGE(R62,X62)</f>
-        <v>80.21637448985048</v>
+        <f>R62*0.7</f>
+        <v>73.5</v>
       </c>
       <c r="V62" s="14">
         <v>75</v>
@@ -6993,8 +6993,8 @@
         <v>140</v>
       </c>
       <c r="U63" s="14">
-        <f>AVERAGE(R63,X63)</f>
-        <v>100.86824933980651</v>
+        <f>R63*0.7</f>
+        <v>91</v>
       </c>
       <c r="V63" s="14">
         <v>100</v>
@@ -7069,8 +7069,8 @@
         <v>135</v>
       </c>
       <c r="U64" s="14">
-        <f>AVERAGE(R64,X64)</f>
-        <v>96.737874369815302</v>
+        <f>R64*0.7</f>
+        <v>87.5</v>
       </c>
       <c r="V64" s="14">
         <v>95</v>
@@ -7145,8 +7145,8 @@
         <v>130</v>
       </c>
       <c r="U65" s="14">
-        <f>AVERAGE(R65,X65)</f>
-        <v>92.607499399824093</v>
+        <f>R65*0.7</f>
+        <v>84</v>
       </c>
       <c r="V65" s="14">
         <v>90</v>
@@ -7221,8 +7221,8 @@
         <v>120</v>
       </c>
       <c r="U66" s="14">
-        <f>AVERAGE(R66,X66)</f>
-        <v>84.346749459841675</v>
+        <f>R66*0.7</f>
+        <v>77</v>
       </c>
       <c r="V66" s="14">
         <v>80</v>
@@ -7297,8 +7297,8 @@
         <v>110</v>
       </c>
       <c r="U67" s="14">
-        <f>AVERAGE(R67,X67)</f>
-        <v>76.085999519859271</v>
+        <f>R67*0.7</f>
+        <v>70</v>
       </c>
       <c r="V67" s="14">
         <v>70</v>
@@ -7373,8 +7373,8 @@
         <v>120</v>
       </c>
       <c r="U68" s="14">
-        <f>AVERAGE(R68,X68)</f>
-        <v>76.085999519859271</v>
+        <f>R68*0.7</f>
+        <v>70</v>
       </c>
       <c r="V68" s="14">
         <v>60</v>
@@ -8619,8 +8619,8 @@
         <v>7</v>
       </c>
       <c r="U81" s="12">
-        <f>R81*0.9</f>
-        <v>5.4</v>
+        <f>R81*0.75</f>
+        <v>4.5</v>
       </c>
       <c r="V81" s="12">
         <v>5</v>
@@ -8629,8 +8629,8 @@
         <v>7</v>
       </c>
       <c r="X81" s="12">
-        <f>U81*0.9</f>
-        <v>4.8600000000000003</v>
+        <f>U81*0.75</f>
+        <v>3.375</v>
       </c>
       <c r="Y81" s="12">
         <v>5</v>
@@ -8639,8 +8639,8 @@
         <v>7</v>
       </c>
       <c r="AA81" s="12">
-        <f>X81*0.9</f>
-        <v>4.3740000000000006</v>
+        <f>X81*0.75</f>
+        <v>2.53125</v>
       </c>
       <c r="AB81" s="12">
         <v>5</v>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="U82" s="12">
         <f>U81*2.3</f>
-        <v>12.42</v>
+        <v>10.35</v>
       </c>
       <c r="V82" s="12">
         <f>V81*2.3</f>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="X82" s="12">
         <f>X81*2.3</f>
-        <v>11.177999999999999</v>
+        <v>7.7624999999999993</v>
       </c>
       <c r="Y82" s="12">
         <f>Y81*2.3</f>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="AA82" s="12">
         <f>AA81*2.3</f>
-        <v>10.0602</v>
+        <v>5.8218749999999995</v>
       </c>
       <c r="AB82" s="12">
         <f>AB81*2.3</f>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="U83" s="12">
         <f>U81*2</f>
-        <v>10.8</v>
+        <v>9</v>
       </c>
       <c r="V83" s="12">
         <f>V81*2</f>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="X83" s="12">
         <f>X81*2</f>
-        <v>9.7200000000000006</v>
+        <v>6.75</v>
       </c>
       <c r="Y83" s="12">
         <f>Y81*2</f>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="AA83" s="12">
         <f>AA81*2</f>
-        <v>8.7480000000000011</v>
+        <v>5.0625</v>
       </c>
       <c r="AB83" s="12">
         <f>AB81*2</f>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="U84" s="12">
         <f>U81*1.2</f>
-        <v>6.48</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="V84" s="12">
         <f>V81*1.2</f>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="X84" s="12">
         <f>X81*1.2</f>
-        <v>5.8319999999999999</v>
+        <v>4.05</v>
       </c>
       <c r="Y84" s="12">
         <f>Y81*1.2</f>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="AA84" s="12">
         <f>AA81*1.2</f>
-        <v>5.2488000000000001</v>
+        <v>3.0375000000000001</v>
       </c>
       <c r="AB84" s="12">
         <f>AB81*1.2</f>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="U85" s="12">
         <f>U81*1.5</f>
-        <v>8.1000000000000014</v>
+        <v>6.75</v>
       </c>
       <c r="V85" s="12">
         <f>V81*1.5</f>
@@ -9054,7 +9054,7 @@
       </c>
       <c r="X85" s="12">
         <f>X81*1.5</f>
-        <v>7.2900000000000009</v>
+        <v>5.0625</v>
       </c>
       <c r="Y85" s="12">
         <f>Y81*1.5</f>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="AA85" s="12">
         <f>AA81*1.5</f>
-        <v>6.5610000000000008</v>
+        <v>3.796875</v>
       </c>
       <c r="AB85" s="12">
         <f>AB81*1.5</f>
@@ -9135,37 +9135,37 @@
         <v>43</v>
       </c>
       <c r="U86" s="13">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="V86" s="13">
         <f>U86*0.8</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="W86" s="13">
         <f>U86*1.2</f>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="X86" s="13">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Y86" s="13">
         <f>X86*0.8</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="Z86" s="13">
         <f>X86*1.2</f>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AA86" s="13">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AB86" s="13">
         <f>AA86*0.8</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AC86" s="13">
         <f>AA86*1.2</f>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">

--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/carculator_truck/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7A64C6-C7BC-6744-9ADB-6B75C193CAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8387E0E0-9BBF-2F4D-A9BD-1D41760137DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="36560" windowHeight="22720" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1626,10 +1626,10 @@
   <dimension ref="A1:AU405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="O49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="R49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U68" sqref="U68"/>
+      <selection pane="bottomRight" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -8619,8 +8619,8 @@
         <v>7</v>
       </c>
       <c r="U81" s="12">
-        <f>R81*0.75</f>
-        <v>4.5</v>
+        <f>R81*0.7</f>
+        <v>4.1999999999999993</v>
       </c>
       <c r="V81" s="12">
         <v>5</v>
@@ -8629,8 +8629,8 @@
         <v>7</v>
       </c>
       <c r="X81" s="12">
-        <f>U81*0.75</f>
-        <v>3.375</v>
+        <f>U81*0.7</f>
+        <v>2.9399999999999995</v>
       </c>
       <c r="Y81" s="12">
         <v>5</v>
@@ -8639,8 +8639,8 @@
         <v>7</v>
       </c>
       <c r="AA81" s="12">
-        <f>X81*0.75</f>
-        <v>2.53125</v>
+        <f>X81*0.7</f>
+        <v>2.0579999999999994</v>
       </c>
       <c r="AB81" s="12">
         <v>5</v>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="U82" s="12">
         <f>U81*2.3</f>
-        <v>10.35</v>
+        <v>9.6599999999999984</v>
       </c>
       <c r="V82" s="12">
         <f>V81*2.3</f>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="X82" s="12">
         <f>X81*2.3</f>
-        <v>7.7624999999999993</v>
+        <v>6.7619999999999987</v>
       </c>
       <c r="Y82" s="12">
         <f>Y81*2.3</f>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="AA82" s="12">
         <f>AA81*2.3</f>
-        <v>5.8218749999999995</v>
+        <v>4.7333999999999978</v>
       </c>
       <c r="AB82" s="12">
         <f>AB81*2.3</f>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="U83" s="12">
         <f>U81*2</f>
-        <v>9</v>
+        <v>8.3999999999999986</v>
       </c>
       <c r="V83" s="12">
         <f>V81*2</f>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="X83" s="12">
         <f>X81*2</f>
-        <v>6.75</v>
+        <v>5.879999999999999</v>
       </c>
       <c r="Y83" s="12">
         <f>Y81*2</f>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="AA83" s="12">
         <f>AA81*2</f>
-        <v>5.0625</v>
+        <v>4.1159999999999988</v>
       </c>
       <c r="AB83" s="12">
         <f>AB81*2</f>
@@ -8935,7 +8935,7 @@
       </c>
       <c r="U84" s="12">
         <f>U81*1.2</f>
-        <v>5.3999999999999995</v>
+        <v>5.0399999999999991</v>
       </c>
       <c r="V84" s="12">
         <f>V81*1.2</f>
@@ -8947,7 +8947,7 @@
       </c>
       <c r="X84" s="12">
         <f>X81*1.2</f>
-        <v>4.05</v>
+        <v>3.5279999999999991</v>
       </c>
       <c r="Y84" s="12">
         <f>Y81*1.2</f>
@@ -8959,7 +8959,7 @@
       </c>
       <c r="AA84" s="12">
         <f>AA81*1.2</f>
-        <v>3.0375000000000001</v>
+        <v>2.4695999999999994</v>
       </c>
       <c r="AB84" s="12">
         <f>AB81*1.2</f>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="U85" s="12">
         <f>U81*1.5</f>
-        <v>6.75</v>
+        <v>6.2999999999999989</v>
       </c>
       <c r="V85" s="12">
         <f>V81*1.5</f>
@@ -9054,7 +9054,7 @@
       </c>
       <c r="X85" s="12">
         <f>X81*1.5</f>
-        <v>5.0625</v>
+        <v>4.4099999999999993</v>
       </c>
       <c r="Y85" s="12">
         <f>Y81*1.5</f>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="AA85" s="12">
         <f>AA81*1.5</f>
-        <v>3.796875</v>
+        <v>3.0869999999999989</v>
       </c>
       <c r="AB85" s="12">
         <f>AB81*1.5</f>
